--- a/Баланс.xlsx
+++ b/Баланс.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="53">
   <si>
     <t>Дата</t>
   </si>
@@ -176,9 +176,6 @@
   </si>
   <si>
     <t>Остаток</t>
-  </si>
-  <si>
-    <t>b</t>
   </si>
 </sst>
 </file>
@@ -2577,11 +2574,7 @@
       </c>
       <c r="V67" s="27"/>
     </row>
-    <row r="69" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="L69" s="0" t="s">
-        <v>53</v>
-      </c>
-    </row>
+    <row r="69" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
   <mergeCells count="2">
     <mergeCell ref="H67:I67"/>

--- a/Баланс.xlsx
+++ b/Баланс.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="53">
   <si>
     <t>Дата</t>
   </si>
@@ -606,10 +606,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:V69"/>
+  <dimension ref="A1:V72"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="I44" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="L69" activeCellId="0" sqref="L69"/>
+      <selection pane="topLeft" activeCell="N63" activeCellId="0" sqref="N63"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1034,7 +1034,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="9"/>
       <c r="B10" s="12"/>
       <c r="C10" s="11"/>
@@ -1063,9 +1063,15 @@
       <c r="P10" s="11"/>
       <c r="Q10" s="14"/>
       <c r="R10" s="12"/>
-      <c r="T10" s="15"/>
-      <c r="U10" s="14"/>
-      <c r="V10" s="12"/>
+      <c r="T10" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="U10" s="14" t="n">
+        <v>18.1</v>
+      </c>
+      <c r="V10" s="12" t="n">
+        <v>1000</v>
+      </c>
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="9"/>
@@ -2486,9 +2492,15 @@
       <c r="I61" s="14"/>
       <c r="J61" s="18"/>
       <c r="K61" s="4"/>
-      <c r="L61" s="11"/>
-      <c r="M61" s="19"/>
-      <c r="N61" s="18"/>
+      <c r="L61" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="M61" s="19" t="n">
+        <v>18.1</v>
+      </c>
+      <c r="N61" s="18" t="n">
+        <v>16</v>
+      </c>
       <c r="P61" s="11"/>
       <c r="Q61" s="14"/>
       <c r="R61" s="12"/>
@@ -2506,9 +2518,15 @@
       <c r="I62" s="14"/>
       <c r="J62" s="18"/>
       <c r="K62" s="4"/>
-      <c r="L62" s="11"/>
-      <c r="M62" s="19"/>
-      <c r="N62" s="18"/>
+      <c r="L62" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="M62" s="19" t="n">
+        <v>18.1</v>
+      </c>
+      <c r="N62" s="18" t="n">
+        <v>88</v>
+      </c>
       <c r="P62" s="11"/>
       <c r="Q62" s="14"/>
       <c r="R62" s="12"/>
@@ -2516,7 +2534,7 @@
       <c r="U62" s="14"/>
       <c r="V62" s="12"/>
     </row>
-    <row r="63" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="63" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B63" s="12"/>
       <c r="C63" s="11"/>
       <c r="D63" s="11"/>
@@ -2527,7 +2545,7 @@
       <c r="J63" s="18"/>
       <c r="K63" s="4"/>
       <c r="L63" s="11"/>
-      <c r="M63" s="14"/>
+      <c r="M63" s="19"/>
       <c r="N63" s="18"/>
       <c r="P63" s="11"/>
       <c r="Q63" s="14"/>
@@ -2536,49 +2554,109 @@
       <c r="U63" s="14"/>
       <c r="V63" s="12"/>
     </row>
-    <row r="64" customFormat="false" ht="9.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="65" s="20" customFormat="true" ht="27.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="J65" s="21" t="n">
-        <f aca="false">SUM(J2:J63)</f>
+    <row r="64" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B64" s="12"/>
+      <c r="C64" s="11"/>
+      <c r="D64" s="11"/>
+      <c r="E64" s="12"/>
+      <c r="F64" s="13"/>
+      <c r="H64" s="11"/>
+      <c r="I64" s="14"/>
+      <c r="J64" s="18"/>
+      <c r="K64" s="4"/>
+      <c r="L64" s="11"/>
+      <c r="M64" s="19"/>
+      <c r="N64" s="18"/>
+      <c r="P64" s="11"/>
+      <c r="Q64" s="14"/>
+      <c r="R64" s="12"/>
+      <c r="T64" s="15"/>
+      <c r="U64" s="14"/>
+      <c r="V64" s="12"/>
+    </row>
+    <row r="65" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B65" s="12"/>
+      <c r="C65" s="11"/>
+      <c r="D65" s="11"/>
+      <c r="E65" s="12"/>
+      <c r="F65" s="13"/>
+      <c r="H65" s="11"/>
+      <c r="I65" s="14"/>
+      <c r="J65" s="18"/>
+      <c r="K65" s="4"/>
+      <c r="L65" s="11"/>
+      <c r="M65" s="19"/>
+      <c r="N65" s="18"/>
+      <c r="P65" s="11"/>
+      <c r="Q65" s="14"/>
+      <c r="R65" s="12"/>
+      <c r="T65" s="15"/>
+      <c r="U65" s="14"/>
+      <c r="V65" s="12"/>
+    </row>
+    <row r="66" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B66" s="12"/>
+      <c r="C66" s="11"/>
+      <c r="D66" s="11"/>
+      <c r="E66" s="12"/>
+      <c r="F66" s="13"/>
+      <c r="H66" s="11"/>
+      <c r="I66" s="14"/>
+      <c r="J66" s="18"/>
+      <c r="K66" s="4"/>
+      <c r="L66" s="11"/>
+      <c r="M66" s="14"/>
+      <c r="N66" s="18"/>
+      <c r="P66" s="11"/>
+      <c r="Q66" s="14"/>
+      <c r="R66" s="12"/>
+      <c r="T66" s="15"/>
+      <c r="U66" s="14"/>
+      <c r="V66" s="12"/>
+    </row>
+    <row r="67" customFormat="false" ht="9.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="68" s="20" customFormat="true" ht="27.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="J68" s="21" t="n">
+        <f aca="false">SUM(J2:J66)</f>
         <v>14612</v>
       </c>
-      <c r="N65" s="22" t="n">
-        <f aca="false">SUM(N2:N64)</f>
-        <v>3596</v>
-      </c>
-      <c r="R65" s="23" t="n">
-        <f aca="false">SUM(R2:R63)</f>
+      <c r="N68" s="22" t="n">
+        <f aca="false">SUM(N2:N67)</f>
+        <v>3700</v>
+      </c>
+      <c r="R68" s="23" t="n">
+        <f aca="false">SUM(R2:R66)</f>
         <v>1715</v>
       </c>
-      <c r="V65" s="21" t="n">
-        <f aca="false">SUM(V2:V64)</f>
-        <v>8000</v>
-      </c>
-    </row>
-    <row r="66" customFormat="false" ht="9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="67" customFormat="false" ht="28.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="H67" s="24" t="s">
+      <c r="V68" s="21" t="n">
+        <f aca="false">SUM(V2:V67)</f>
+        <v>9000</v>
+      </c>
+    </row>
+    <row r="69" customFormat="false" ht="9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="70" customFormat="false" ht="28.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="H70" s="24" t="s">
         <v>51</v>
       </c>
-      <c r="I67" s="24"/>
-      <c r="J67" s="25" t="n">
-        <f aca="false">J65-J2</f>
+      <c r="I70" s="24"/>
+      <c r="J70" s="25" t="n">
+        <f aca="false">J68-J2</f>
         <v>13112</v>
       </c>
-      <c r="T67" s="26" t="s">
+      <c r="T70" s="26" t="s">
         <v>52</v>
       </c>
-      <c r="U67" s="27" t="n">
-        <f aca="false">J65-N65-R65-V65</f>
-        <v>1301</v>
-      </c>
-      <c r="V67" s="27"/>
-    </row>
-    <row r="69" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+      <c r="U70" s="27" t="n">
+        <f aca="false">J68-N68-R68-V68</f>
+        <v>197</v>
+      </c>
+      <c r="V70" s="27"/>
+    </row>
+    <row r="72" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
   <mergeCells count="2">
-    <mergeCell ref="H67:I67"/>
-    <mergeCell ref="U67:V67"/>
+    <mergeCell ref="H70:I70"/>
+    <mergeCell ref="U70:V70"/>
   </mergeCells>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>

--- a/Баланс.xlsx
+++ b/Баланс.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="54">
   <si>
     <t>Дата</t>
   </si>
@@ -170,6 +170,9 @@
   </si>
   <si>
     <t>Книжка</t>
+  </si>
+  <si>
+    <t>монопод</t>
   </si>
   <si>
     <t>Чистий заробіток</t>
@@ -608,8 +611,8 @@
   </sheetPr>
   <dimension ref="A1:V72"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="I44" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="N63" activeCellId="0" sqref="N63"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="H44" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="N64" activeCellId="0" sqref="N64"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1575,9 +1578,15 @@
       <c r="D26" s="11"/>
       <c r="E26" s="12"/>
       <c r="F26" s="13"/>
-      <c r="H26" s="11"/>
-      <c r="I26" s="14"/>
-      <c r="J26" s="18"/>
+      <c r="H26" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="I26" s="14" t="n">
+        <v>23.1</v>
+      </c>
+      <c r="J26" s="18" t="n">
+        <v>553</v>
+      </c>
       <c r="K26" s="4"/>
       <c r="L26" s="11" t="s">
         <v>34</v>
@@ -2544,9 +2553,15 @@
       <c r="I63" s="14"/>
       <c r="J63" s="18"/>
       <c r="K63" s="4"/>
-      <c r="L63" s="11"/>
-      <c r="M63" s="19"/>
-      <c r="N63" s="18"/>
+      <c r="L63" s="11" t="s">
+        <v>51</v>
+      </c>
+      <c r="M63" s="19" t="n">
+        <v>23.1</v>
+      </c>
+      <c r="N63" s="18" t="n">
+        <v>6</v>
+      </c>
       <c r="P63" s="11"/>
       <c r="Q63" s="14"/>
       <c r="R63" s="12"/>
@@ -2618,11 +2633,11 @@
     <row r="68" s="20" customFormat="true" ht="27.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="J68" s="21" t="n">
         <f aca="false">SUM(J2:J66)</f>
-        <v>14612</v>
+        <v>15165</v>
       </c>
       <c r="N68" s="22" t="n">
         <f aca="false">SUM(N2:N67)</f>
-        <v>3700</v>
+        <v>3706</v>
       </c>
       <c r="R68" s="23" t="n">
         <f aca="false">SUM(R2:R66)</f>
@@ -2636,19 +2651,19 @@
     <row r="69" customFormat="false" ht="9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="70" customFormat="false" ht="28.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="H70" s="24" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="I70" s="24"/>
       <c r="J70" s="25" t="n">
         <f aca="false">J68-J2</f>
-        <v>13112</v>
+        <v>13665</v>
       </c>
       <c r="T70" s="26" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="U70" s="27" t="n">
         <f aca="false">J68-N68-R68-V68</f>
-        <v>197</v>
+        <v>744</v>
       </c>
       <c r="V70" s="27"/>
     </row>

--- a/Баланс.xlsx
+++ b/Баланс.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="55">
   <si>
     <t>Дата</t>
   </si>
@@ -173,6 +173,9 @@
   </si>
   <si>
     <t>монопод</t>
+  </si>
+  <si>
+    <t>sj5000</t>
   </si>
   <si>
     <t>Чистий заробіток</t>
@@ -611,8 +614,8 @@
   </sheetPr>
   <dimension ref="A1:V72"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="H44" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="N64" activeCellId="0" sqref="N64"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="K26" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="N65" activeCellId="0" sqref="N65"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2579,9 +2582,15 @@
       <c r="I64" s="14"/>
       <c r="J64" s="18"/>
       <c r="K64" s="4"/>
-      <c r="L64" s="11"/>
-      <c r="M64" s="19"/>
-      <c r="N64" s="18"/>
+      <c r="L64" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="M64" s="19" t="n">
+        <v>23.1</v>
+      </c>
+      <c r="N64" s="18" t="n">
+        <v>176</v>
+      </c>
       <c r="P64" s="11"/>
       <c r="Q64" s="14"/>
       <c r="R64" s="12"/>
@@ -2637,7 +2646,7 @@
       </c>
       <c r="N68" s="22" t="n">
         <f aca="false">SUM(N2:N67)</f>
-        <v>3706</v>
+        <v>3882</v>
       </c>
       <c r="R68" s="23" t="n">
         <f aca="false">SUM(R2:R66)</f>
@@ -2651,7 +2660,7 @@
     <row r="69" customFormat="false" ht="9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="70" customFormat="false" ht="28.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="H70" s="24" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="I70" s="24"/>
       <c r="J70" s="25" t="n">
@@ -2659,11 +2668,11 @@
         <v>13665</v>
       </c>
       <c r="T70" s="26" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="U70" s="27" t="n">
         <f aca="false">J68-N68-R68-V68</f>
-        <v>744</v>
+        <v>568</v>
       </c>
       <c r="V70" s="27"/>
     </row>

--- a/Баланс.xlsx
+++ b/Баланс.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="56">
   <si>
     <t>Дата</t>
   </si>
@@ -176,6 +176,9 @@
   </si>
   <si>
     <t>sj5000</t>
+  </si>
+  <si>
+    <t>хостинг</t>
   </si>
   <si>
     <t>Чистий заробіток</t>
@@ -614,8 +617,8 @@
   </sheetPr>
   <dimension ref="A1:V72"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="K26" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="N65" activeCellId="0" sqref="N65"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="K44" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="N66" activeCellId="0" sqref="N66"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2608,9 +2611,15 @@
       <c r="I65" s="14"/>
       <c r="J65" s="18"/>
       <c r="K65" s="4"/>
-      <c r="L65" s="11"/>
-      <c r="M65" s="19"/>
-      <c r="N65" s="18"/>
+      <c r="L65" s="11" t="s">
+        <v>53</v>
+      </c>
+      <c r="M65" s="19" t="n">
+        <v>24.1</v>
+      </c>
+      <c r="N65" s="18" t="n">
+        <v>10</v>
+      </c>
       <c r="P65" s="11"/>
       <c r="Q65" s="14"/>
       <c r="R65" s="12"/>
@@ -2646,7 +2655,7 @@
       </c>
       <c r="N68" s="22" t="n">
         <f aca="false">SUM(N2:N67)</f>
-        <v>3882</v>
+        <v>3892</v>
       </c>
       <c r="R68" s="23" t="n">
         <f aca="false">SUM(R2:R66)</f>
@@ -2660,7 +2669,7 @@
     <row r="69" customFormat="false" ht="9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="70" customFormat="false" ht="28.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="H70" s="24" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="I70" s="24"/>
       <c r="J70" s="25" t="n">
@@ -2668,11 +2677,11 @@
         <v>13665</v>
       </c>
       <c r="T70" s="26" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="U70" s="27" t="n">
         <f aca="false">J68-N68-R68-V68</f>
-        <v>568</v>
+        <v>558</v>
       </c>
       <c r="V70" s="27"/>
     </row>

--- a/Баланс.xlsx
+++ b/Баланс.xlsx
@@ -618,7 +618,7 @@
   <dimension ref="A1:V72"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="K44" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="N66" activeCellId="0" sqref="N66"/>
+      <selection pane="topLeft" activeCell="X62" activeCellId="0" sqref="X62"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2618,7 +2618,7 @@
         <v>24.1</v>
       </c>
       <c r="N65" s="18" t="n">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="P65" s="11"/>
       <c r="Q65" s="14"/>
@@ -2655,7 +2655,7 @@
       </c>
       <c r="N68" s="22" t="n">
         <f aca="false">SUM(N2:N67)</f>
-        <v>3892</v>
+        <v>3898</v>
       </c>
       <c r="R68" s="23" t="n">
         <f aca="false">SUM(R2:R66)</f>
@@ -2681,7 +2681,7 @@
       </c>
       <c r="U70" s="27" t="n">
         <f aca="false">J68-N68-R68-V68</f>
-        <v>558</v>
+        <v>552</v>
       </c>
       <c r="V70" s="27"/>
     </row>

--- a/Баланс.xlsx
+++ b/Баланс.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="56">
   <si>
     <t>Дата</t>
   </si>
@@ -615,10 +615,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:V72"/>
+  <dimension ref="A1:V75"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="K44" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="X62" activeCellId="0" sqref="X62"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="K50" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="N67" activeCellId="0" sqref="N67"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2627,7 +2627,7 @@
       <c r="U65" s="14"/>
       <c r="V65" s="12"/>
     </row>
-    <row r="66" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="66" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B66" s="12"/>
       <c r="C66" s="11"/>
       <c r="D66" s="11"/>
@@ -2637,9 +2637,15 @@
       <c r="I66" s="14"/>
       <c r="J66" s="18"/>
       <c r="K66" s="4"/>
-      <c r="L66" s="11"/>
-      <c r="M66" s="14"/>
-      <c r="N66" s="18"/>
+      <c r="L66" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="M66" s="19" t="n">
+        <v>25.1</v>
+      </c>
+      <c r="N66" s="18" t="n">
+        <v>47</v>
+      </c>
       <c r="P66" s="11"/>
       <c r="Q66" s="14"/>
       <c r="R66" s="12"/>
@@ -2647,49 +2653,109 @@
       <c r="U66" s="14"/>
       <c r="V66" s="12"/>
     </row>
-    <row r="67" customFormat="false" ht="9.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="68" s="20" customFormat="true" ht="27.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="J68" s="21" t="n">
-        <f aca="false">SUM(J2:J66)</f>
+    <row r="67" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B67" s="12"/>
+      <c r="C67" s="11"/>
+      <c r="D67" s="11"/>
+      <c r="E67" s="12"/>
+      <c r="F67" s="13"/>
+      <c r="H67" s="11"/>
+      <c r="I67" s="14"/>
+      <c r="J67" s="18"/>
+      <c r="K67" s="4"/>
+      <c r="L67" s="11"/>
+      <c r="M67" s="19"/>
+      <c r="N67" s="18"/>
+      <c r="P67" s="11"/>
+      <c r="Q67" s="14"/>
+      <c r="R67" s="12"/>
+      <c r="T67" s="15"/>
+      <c r="U67" s="14"/>
+      <c r="V67" s="12"/>
+    </row>
+    <row r="68" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B68" s="12"/>
+      <c r="C68" s="11"/>
+      <c r="D68" s="11"/>
+      <c r="E68" s="12"/>
+      <c r="F68" s="13"/>
+      <c r="H68" s="11"/>
+      <c r="I68" s="14"/>
+      <c r="J68" s="18"/>
+      <c r="K68" s="4"/>
+      <c r="L68" s="11"/>
+      <c r="M68" s="19"/>
+      <c r="N68" s="18"/>
+      <c r="P68" s="11"/>
+      <c r="Q68" s="14"/>
+      <c r="R68" s="12"/>
+      <c r="T68" s="15"/>
+      <c r="U68" s="14"/>
+      <c r="V68" s="12"/>
+    </row>
+    <row r="69" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B69" s="12"/>
+      <c r="C69" s="11"/>
+      <c r="D69" s="11"/>
+      <c r="E69" s="12"/>
+      <c r="F69" s="13"/>
+      <c r="H69" s="11"/>
+      <c r="I69" s="14"/>
+      <c r="J69" s="18"/>
+      <c r="K69" s="4"/>
+      <c r="L69" s="11"/>
+      <c r="M69" s="14"/>
+      <c r="N69" s="18"/>
+      <c r="P69" s="11"/>
+      <c r="Q69" s="14"/>
+      <c r="R69" s="12"/>
+      <c r="T69" s="15"/>
+      <c r="U69" s="14"/>
+      <c r="V69" s="12"/>
+    </row>
+    <row r="70" customFormat="false" ht="9.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="71" s="20" customFormat="true" ht="27.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="J71" s="21" t="n">
+        <f aca="false">SUM(J2:J69)</f>
         <v>15165</v>
       </c>
-      <c r="N68" s="22" t="n">
-        <f aca="false">SUM(N2:N67)</f>
-        <v>3898</v>
-      </c>
-      <c r="R68" s="23" t="n">
-        <f aca="false">SUM(R2:R66)</f>
+      <c r="N71" s="22" t="n">
+        <f aca="false">SUM(N2:N70)</f>
+        <v>3945</v>
+      </c>
+      <c r="R71" s="23" t="n">
+        <f aca="false">SUM(R2:R69)</f>
         <v>1715</v>
       </c>
-      <c r="V68" s="21" t="n">
-        <f aca="false">SUM(V2:V67)</f>
+      <c r="V71" s="21" t="n">
+        <f aca="false">SUM(V2:V70)</f>
         <v>9000</v>
       </c>
     </row>
-    <row r="69" customFormat="false" ht="9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="70" customFormat="false" ht="28.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="H70" s="24" t="s">
+    <row r="72" customFormat="false" ht="9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="73" customFormat="false" ht="28.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="H73" s="24" t="s">
         <v>54</v>
       </c>
-      <c r="I70" s="24"/>
-      <c r="J70" s="25" t="n">
-        <f aca="false">J68-J2</f>
+      <c r="I73" s="24"/>
+      <c r="J73" s="25" t="n">
+        <f aca="false">J71-J2</f>
         <v>13665</v>
       </c>
-      <c r="T70" s="26" t="s">
+      <c r="T73" s="26" t="s">
         <v>55</v>
       </c>
-      <c r="U70" s="27" t="n">
-        <f aca="false">J68-N68-R68-V68</f>
-        <v>552</v>
-      </c>
-      <c r="V70" s="27"/>
-    </row>
-    <row r="72" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+      <c r="U73" s="27" t="n">
+        <f aca="false">J71-N71-R71-V71</f>
+        <v>505</v>
+      </c>
+      <c r="V73" s="27"/>
+    </row>
+    <row r="75" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
   <mergeCells count="2">
-    <mergeCell ref="H70:I70"/>
-    <mergeCell ref="U70:V70"/>
+    <mergeCell ref="H73:I73"/>
+    <mergeCell ref="U73:V73"/>
   </mergeCells>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>

--- a/Баланс.xlsx
+++ b/Баланс.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="61">
   <si>
     <t>Дата</t>
   </si>
@@ -179,6 +179,21 @@
   </si>
   <si>
     <t>хостинг</t>
+  </si>
+  <si>
+    <t>сувенір бутилки</t>
+  </si>
+  <si>
+    <t>люлька </t>
+  </si>
+  <si>
+    <t>футболка бікіні</t>
+  </si>
+  <si>
+    <t>раста шапка</t>
+  </si>
+  <si>
+    <t>ресторан</t>
   </si>
   <si>
     <t>Чистий заробіток</t>
@@ -615,10 +630,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:V75"/>
+  <dimension ref="A1:V84"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="K50" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="N67" activeCellId="0" sqref="N67"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="I54" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A73" activeCellId="0" sqref="73:73"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1617,9 +1632,15 @@
       <c r="D27" s="11"/>
       <c r="E27" s="12"/>
       <c r="F27" s="13"/>
-      <c r="H27" s="11"/>
-      <c r="I27" s="14"/>
-      <c r="J27" s="18"/>
+      <c r="H27" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="I27" s="14" t="n">
+        <v>29.1</v>
+      </c>
+      <c r="J27" s="18" t="n">
+        <v>443</v>
+      </c>
       <c r="K27" s="4"/>
       <c r="L27" s="11" t="s">
         <v>22</v>
@@ -2663,9 +2684,15 @@
       <c r="I67" s="14"/>
       <c r="J67" s="18"/>
       <c r="K67" s="4"/>
-      <c r="L67" s="11"/>
-      <c r="M67" s="19"/>
-      <c r="N67" s="18"/>
+      <c r="L67" s="11" t="s">
+        <v>54</v>
+      </c>
+      <c r="M67" s="19" t="n">
+        <v>25.1</v>
+      </c>
+      <c r="N67" s="18" t="n">
+        <v>9</v>
+      </c>
       <c r="P67" s="11"/>
       <c r="Q67" s="14"/>
       <c r="R67" s="12"/>
@@ -2683,9 +2710,15 @@
       <c r="I68" s="14"/>
       <c r="J68" s="18"/>
       <c r="K68" s="4"/>
-      <c r="L68" s="11"/>
-      <c r="M68" s="19"/>
-      <c r="N68" s="18"/>
+      <c r="L68" s="11" t="s">
+        <v>55</v>
+      </c>
+      <c r="M68" s="19" t="n">
+        <v>24.1</v>
+      </c>
+      <c r="N68" s="18" t="n">
+        <v>19</v>
+      </c>
       <c r="P68" s="11"/>
       <c r="Q68" s="14"/>
       <c r="R68" s="12"/>
@@ -2693,7 +2726,7 @@
       <c r="U68" s="14"/>
       <c r="V68" s="12"/>
     </row>
-    <row r="69" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="69" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B69" s="12"/>
       <c r="C69" s="11"/>
       <c r="D69" s="11"/>
@@ -2703,9 +2736,15 @@
       <c r="I69" s="14"/>
       <c r="J69" s="18"/>
       <c r="K69" s="4"/>
-      <c r="L69" s="11"/>
-      <c r="M69" s="14"/>
-      <c r="N69" s="18"/>
+      <c r="L69" s="11" t="s">
+        <v>56</v>
+      </c>
+      <c r="M69" s="19" t="n">
+        <v>29.1</v>
+      </c>
+      <c r="N69" s="18" t="n">
+        <v>20</v>
+      </c>
       <c r="P69" s="11"/>
       <c r="Q69" s="14"/>
       <c r="R69" s="12"/>
@@ -2713,49 +2752,247 @@
       <c r="U69" s="14"/>
       <c r="V69" s="12"/>
     </row>
-    <row r="70" customFormat="false" ht="9.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="71" s="20" customFormat="true" ht="27.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="J71" s="21" t="n">
-        <f aca="false">SUM(J2:J69)</f>
-        <v>15165</v>
-      </c>
-      <c r="N71" s="22" t="n">
-        <f aca="false">SUM(N2:N70)</f>
-        <v>3945</v>
-      </c>
-      <c r="R71" s="23" t="n">
-        <f aca="false">SUM(R2:R69)</f>
+    <row r="70" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B70" s="12"/>
+      <c r="C70" s="11"/>
+      <c r="D70" s="11"/>
+      <c r="E70" s="12"/>
+      <c r="F70" s="13"/>
+      <c r="H70" s="11"/>
+      <c r="I70" s="14"/>
+      <c r="J70" s="18"/>
+      <c r="K70" s="4"/>
+      <c r="L70" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="M70" s="19" t="n">
+        <v>29.1</v>
+      </c>
+      <c r="N70" s="18" t="n">
+        <v>22</v>
+      </c>
+      <c r="P70" s="11"/>
+      <c r="Q70" s="14"/>
+      <c r="R70" s="12"/>
+      <c r="T70" s="15"/>
+      <c r="U70" s="14"/>
+      <c r="V70" s="12"/>
+    </row>
+    <row r="71" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B71" s="12"/>
+      <c r="C71" s="11"/>
+      <c r="D71" s="11"/>
+      <c r="E71" s="12"/>
+      <c r="F71" s="13"/>
+      <c r="H71" s="11"/>
+      <c r="I71" s="14"/>
+      <c r="J71" s="18"/>
+      <c r="K71" s="4"/>
+      <c r="L71" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="M71" s="19" t="n">
+        <v>29</v>
+      </c>
+      <c r="N71" s="18" t="n">
+        <v>9</v>
+      </c>
+      <c r="P71" s="11"/>
+      <c r="Q71" s="14"/>
+      <c r="R71" s="12"/>
+      <c r="T71" s="15"/>
+      <c r="U71" s="14"/>
+      <c r="V71" s="12"/>
+    </row>
+    <row r="72" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B72" s="12"/>
+      <c r="C72" s="11"/>
+      <c r="D72" s="11"/>
+      <c r="E72" s="12"/>
+      <c r="F72" s="13"/>
+      <c r="H72" s="11"/>
+      <c r="I72" s="14"/>
+      <c r="J72" s="18"/>
+      <c r="K72" s="4"/>
+      <c r="L72" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="M72" s="19" t="n">
+        <v>29</v>
+      </c>
+      <c r="N72" s="18" t="n">
+        <v>48</v>
+      </c>
+      <c r="P72" s="11"/>
+      <c r="Q72" s="14"/>
+      <c r="R72" s="12"/>
+      <c r="T72" s="15"/>
+      <c r="U72" s="14"/>
+      <c r="V72" s="12"/>
+    </row>
+    <row r="73" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B73" s="12"/>
+      <c r="C73" s="11"/>
+      <c r="D73" s="11"/>
+      <c r="E73" s="12"/>
+      <c r="F73" s="13"/>
+      <c r="H73" s="11"/>
+      <c r="I73" s="14"/>
+      <c r="J73" s="18"/>
+      <c r="K73" s="4"/>
+      <c r="L73" s="11"/>
+      <c r="M73" s="19"/>
+      <c r="N73" s="18"/>
+      <c r="P73" s="11"/>
+      <c r="Q73" s="14"/>
+      <c r="R73" s="12"/>
+      <c r="T73" s="15"/>
+      <c r="U73" s="14"/>
+      <c r="V73" s="12"/>
+    </row>
+    <row r="74" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B74" s="12"/>
+      <c r="C74" s="11"/>
+      <c r="D74" s="11"/>
+      <c r="E74" s="12"/>
+      <c r="F74" s="13"/>
+      <c r="H74" s="11"/>
+      <c r="I74" s="14"/>
+      <c r="J74" s="18"/>
+      <c r="K74" s="4"/>
+      <c r="L74" s="11"/>
+      <c r="M74" s="19"/>
+      <c r="N74" s="18"/>
+      <c r="P74" s="11"/>
+      <c r="Q74" s="14"/>
+      <c r="R74" s="12"/>
+      <c r="T74" s="15"/>
+      <c r="U74" s="14"/>
+      <c r="V74" s="12"/>
+    </row>
+    <row r="75" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B75" s="12"/>
+      <c r="C75" s="11"/>
+      <c r="D75" s="11"/>
+      <c r="E75" s="12"/>
+      <c r="F75" s="13"/>
+      <c r="H75" s="11"/>
+      <c r="I75" s="14"/>
+      <c r="J75" s="18"/>
+      <c r="K75" s="4"/>
+      <c r="L75" s="11"/>
+      <c r="M75" s="19"/>
+      <c r="N75" s="18"/>
+      <c r="P75" s="11"/>
+      <c r="Q75" s="14"/>
+      <c r="R75" s="12"/>
+      <c r="T75" s="15"/>
+      <c r="U75" s="14"/>
+      <c r="V75" s="12"/>
+    </row>
+    <row r="76" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B76" s="12"/>
+      <c r="C76" s="11"/>
+      <c r="D76" s="11"/>
+      <c r="E76" s="12"/>
+      <c r="F76" s="13"/>
+      <c r="H76" s="11"/>
+      <c r="I76" s="14"/>
+      <c r="J76" s="18"/>
+      <c r="K76" s="4"/>
+      <c r="L76" s="11"/>
+      <c r="M76" s="19"/>
+      <c r="N76" s="18"/>
+      <c r="P76" s="11"/>
+      <c r="Q76" s="14"/>
+      <c r="R76" s="12"/>
+      <c r="T76" s="15"/>
+      <c r="U76" s="14"/>
+      <c r="V76" s="12"/>
+    </row>
+    <row r="77" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B77" s="12"/>
+      <c r="C77" s="11"/>
+      <c r="D77" s="11"/>
+      <c r="E77" s="12"/>
+      <c r="F77" s="13"/>
+      <c r="H77" s="11"/>
+      <c r="I77" s="14"/>
+      <c r="J77" s="18"/>
+      <c r="K77" s="4"/>
+      <c r="L77" s="11"/>
+      <c r="M77" s="19"/>
+      <c r="N77" s="18"/>
+      <c r="P77" s="11"/>
+      <c r="Q77" s="14"/>
+      <c r="R77" s="12"/>
+      <c r="T77" s="15"/>
+      <c r="U77" s="14"/>
+      <c r="V77" s="12"/>
+    </row>
+    <row r="78" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B78" s="12"/>
+      <c r="C78" s="11"/>
+      <c r="D78" s="11"/>
+      <c r="E78" s="12"/>
+      <c r="F78" s="13"/>
+      <c r="H78" s="11"/>
+      <c r="I78" s="14"/>
+      <c r="J78" s="18"/>
+      <c r="K78" s="4"/>
+      <c r="L78" s="11"/>
+      <c r="M78" s="14"/>
+      <c r="N78" s="18"/>
+      <c r="P78" s="11"/>
+      <c r="Q78" s="14"/>
+      <c r="R78" s="12"/>
+      <c r="T78" s="15"/>
+      <c r="U78" s="14"/>
+      <c r="V78" s="12"/>
+    </row>
+    <row r="79" customFormat="false" ht="9.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="80" s="20" customFormat="true" ht="27.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="J80" s="21" t="n">
+        <f aca="false">SUM(J2:J78)</f>
+        <v>15608</v>
+      </c>
+      <c r="N80" s="22" t="n">
+        <f aca="false">SUM(N2:N79)</f>
+        <v>4072</v>
+      </c>
+      <c r="R80" s="23" t="n">
+        <f aca="false">SUM(R2:R78)</f>
         <v>1715</v>
       </c>
-      <c r="V71" s="21" t="n">
-        <f aca="false">SUM(V2:V70)</f>
+      <c r="V80" s="21" t="n">
+        <f aca="false">SUM(V2:V79)</f>
         <v>9000</v>
       </c>
     </row>
-    <row r="72" customFormat="false" ht="9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="73" customFormat="false" ht="28.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="H73" s="24" t="s">
-        <v>54</v>
-      </c>
-      <c r="I73" s="24"/>
-      <c r="J73" s="25" t="n">
-        <f aca="false">J71-J2</f>
-        <v>13665</v>
-      </c>
-      <c r="T73" s="26" t="s">
-        <v>55</v>
-      </c>
-      <c r="U73" s="27" t="n">
-        <f aca="false">J71-N71-R71-V71</f>
-        <v>505</v>
-      </c>
-      <c r="V73" s="27"/>
-    </row>
-    <row r="75" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="81" customFormat="false" ht="9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="82" customFormat="false" ht="28.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="H82" s="24" t="s">
+        <v>59</v>
+      </c>
+      <c r="I82" s="24"/>
+      <c r="J82" s="25" t="n">
+        <f aca="false">J80-J2</f>
+        <v>14108</v>
+      </c>
+      <c r="T82" s="26" t="s">
+        <v>60</v>
+      </c>
+      <c r="U82" s="27" t="n">
+        <f aca="false">J80-N80-R80-V80</f>
+        <v>821</v>
+      </c>
+      <c r="V82" s="27"/>
+    </row>
+    <row r="84" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
   <mergeCells count="2">
-    <mergeCell ref="H73:I73"/>
-    <mergeCell ref="U73:V73"/>
+    <mergeCell ref="H82:I82"/>
+    <mergeCell ref="U82:V82"/>
   </mergeCells>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
@@ -2775,7 +3012,7 @@
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="73:73 A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2801,7 +3038,7 @@
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="73:73 A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
